--- a/Project_Euler_8_Largest product in a series.xlsx
+++ b/Project_Euler_8_Largest product in a series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\3-Data_Science\Python\Projects\20190727_Project_Euler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA86C50A-A723-4B9B-BA54-C8B4B5054F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2112F9B9-CECC-450D-96F2-FDBE0E384551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{458F65C2-A64E-46CE-8AF1-B6FF5403175B}"/>
   </bookViews>
@@ -31,15 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>7316717653133062491922511967442657474235534919493496983520312774506326239578318016984801869478851843858615607891129494954595017379583319528532088055111254069874715852386305071569329096329522744304355766896648950445244523161731856403098711121722383113622298934233803081353362766142828064444866452387493035890729629049156044077239071381051585930796086670172427121883998797908792274921901699720888093776657273330010533678812202354218097512545405947522435258490771167055601360483958644670632441572215539753697817977846174064955149290862569321978468622482839722413756570560574902614079729686524145351004748216637048440319989000889524345065854122758866688116427171479924442928230863465674813919123162824586178664583591245665294765456828489128831426076900422421902267105562632111110937054421750694165896040807198403850962455444362981230987879927244284909188845801561660979191338754992005240636899125607176060588611646710940507754100225698315520005593572972571636269561882670428252483600823257530420752963450</t>
-  </si>
-  <si>
-    <t>1000_String</t>
-  </si>
-  <si>
-    <t>Num_Char</t>
   </si>
   <si>
     <t>Digits</t>
@@ -54,19 +48,28 @@
     <t>13 Adjacent Numbers</t>
   </si>
   <si>
-    <t>Start_Position_Num</t>
-  </si>
-  <si>
     <t>Product</t>
-  </si>
-  <si>
-    <t>Max_Product</t>
   </si>
   <si>
     <t>Start Pos</t>
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>large_num</t>
+  </si>
+  <si>
+    <t>num_digits</t>
+  </si>
+  <si>
+    <t>max_product</t>
+  </si>
+  <si>
+    <t>start_position_index</t>
+  </si>
+  <si>
+    <t>13_digit_number</t>
   </si>
 </sst>
 </file>
@@ -156,17 +159,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -613,66 +622,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3753CAA3-926F-4318-B32B-CB86773255C3}">
   <dimension ref="A2:S992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="14" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="18" width="3.7109375" customWidth="1"/>
     <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
       <c r="S3" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
@@ -914,7 +922,7 @@
     </row>
     <row r="8" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -982,7 +990,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <f>MAX(S:S)</f>
@@ -1054,7 +1062,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <f>INDEX(D:S,MATCH($B$9,S:S,0),1)</f>
@@ -1126,7 +1134,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B11" t="str">
         <f>INDEX(D:S,MATCH($B$9,S:S,0),2)</f>
@@ -63527,7 +63535,7 @@
         <v>0</v>
       </c>
       <c r="S970" s="7">
-        <f t="shared" ref="S970:S993" si="84">PRODUCT(F970:R970)</f>
+        <f t="shared" ref="S970:S992" si="84">PRODUCT(F970:R970)</f>
         <v>0</v>
       </c>
     </row>
@@ -64328,7 +64336,7 @@
         <v>8</v>
       </c>
       <c r="H983" s="4">
-        <f t="shared" ref="H983:R993" si="85">VALUE(MID($E983,H$4,1))</f>
+        <f t="shared" ref="H983:R992" si="85">VALUE(MID($E983,H$4,1))</f>
         <v>2</v>
       </c>
       <c r="I983" s="4">
@@ -64385,7 +64393,7 @@
         <v>8232575304207</v>
       </c>
       <c r="F984" s="4">
-        <f t="shared" ref="F984:G993" si="86">VALUE(MID($E984,F$4,1))</f>
+        <f t="shared" ref="F984:G992" si="86">VALUE(MID($E984,F$4,1))</f>
         <v>8</v>
       </c>
       <c r="G984" s="4">
@@ -64965,6 +64973,11 @@
   <mergeCells count="1">
     <mergeCell ref="F3:R3"/>
   </mergeCells>
+  <conditionalFormatting sqref="F1:R1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(F1=0,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Project_Euler_8_Largest product in a series.xlsx
+++ b/Project_Euler_8_Largest product in a series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\3-Data_Science\Python\Projects\20190727_Project_Euler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2112F9B9-CECC-450D-96F2-FDBE0E384551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500CD70C-360F-4BFE-BEE4-05E04CD67E7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{458F65C2-A64E-46CE-8AF1-B6FF5403175B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>7316717653133062491922511967442657474235534919493496983520312774506326239578318016984801869478851843858615607891129494954595017379583319528532088055111254069874715852386305071569329096329522744304355766896648950445244523161731856403098711121722383113622298934233803081353362766142828064444866452387493035890729629049156044077239071381051585930796086670172427121883998797908792274921901699720888093776657273330010533678812202354218097512545405947522435258490771167055601360483958644670632441572215539753697817977846174064955149290862569321978468622482839722413756570560574902614079729686524145351004748216637048440319989000889524345065854122758866688116427171479924442928230863465674813919123162824586178664583591245665294765456828489128831426076900422421902267105562632111110937054421750694165896040807198403850962455444362981230987879927244284909188845801561660979191338754992005240636899125607176060588611646710940507754100225698315520005593572972571636269561882670428252483600823257530420752963450</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>13_digit_number</t>
+  </si>
+  <si>
+    <t>product_of_digits</t>
   </si>
 </sst>
 </file>
@@ -1205,6 +1208,13 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <f>INDEX(D:S,MATCH($B$9,S:S,0),16)</f>
+        <v>23514624000</v>
+      </c>
       <c r="D12" s="4">
         <v>7</v>
       </c>
